--- a/fixtures/output/01043110000366247_noncancer_risk_exposure.xlsx
+++ b/fixtures/output/01043110000366247_noncancer_risk_exposure.xlsx
@@ -349,77 +349,77 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>level</t>
+          <t>Level</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>resp_hi</t>
+          <t>Respiratory HI</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>liver_hi</t>
+          <t>Liver HI</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>neuro_hi</t>
+          <t>Neurological HI</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>develop_hi</t>
+          <t>Developmental HI</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>repro_hi</t>
+          <t>Reproductive HI</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>kidney_hi</t>
+          <t>Kidney HI</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>endo_hi</t>
+          <t>Ocular HI</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>hema_hi</t>
+          <t>Endocrine HI</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>immune_hi</t>
+          <t>Hematological HI</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>skel_hi</t>
+          <t>Immunological HI</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>spleen_hi</t>
+          <t>Skeletal HI</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>thyroid_hi</t>
+          <t>Spleen HI</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>wholeb_hi</t>
+          <t>Thyroid HI</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>ocular_hi</t>
+          <t>Whole body HI</t>
         </is>
       </c>
     </row>

--- a/fixtures/output/01043110000366247_noncancer_risk_exposure.xlsx
+++ b/fixtures/output/01043110000366247_noncancer_risk_exposure.xlsx
@@ -84,10 +84,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -113,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -421,49 +430,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
